--- a/bin/print/CollectionReport.xlsx
+++ b/bin/print/CollectionReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Summery Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Collection_Report" localSheetId="0">Details!$A$1:$J$36</definedName>
+    <definedName name="Collection_Report" localSheetId="0">Details!$A$1:$J$37</definedName>
     <definedName name="CollectionChart_1" localSheetId="1">'Summery Chart'!$A$31:$J$47</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -20,10 +20,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Collection_Report" type="6" refreshedVersion="0" background="1" refreshOnLoad="1">
-    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Vendol\bin\print\Collection_Report.txt" tab="0" delimiter="|">
-      <textFields count="10">
-        <textField/>
+  <connection id="1" name="Collection_Report" type="6" refreshedVersion="4" background="1" refreshOnLoad="1">
+    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Shaw\bin\print\Collection_Report.txt" delimiter="|">
+      <textFields count="9">
         <textField/>
         <textField/>
         <textField/>
@@ -36,8 +35,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="CollectionChart" type="6" refreshedVersion="0" background="1" refreshOnLoad="1">
-    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Vendol\bin\print\CollectionChart.txt" tab="0" delimiter="|">
+  <connection id="2" name="CollectionChart" type="6" refreshedVersion="4" background="1" refreshOnLoad="1">
+    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Shaw\bin\print\CollectionChart.txt" delimiter="|">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -291,26 +290,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -437,43 +416,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Other Custermer</c:v>
+                  <c:v>Allakanda Baddegama Unavitiya</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Yatalamattha Banbarapura</c:v>
+                  <c:v>Hikkaduwa Kumarakanda</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Kottawa Yatalamatta</c:v>
+                  <c:v>Thagaswala Pitigala</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Nagoda Unanvitiya</c:v>
+                  <c:v>Kottawa Ellakanda</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Ovilana Labuduwa</c:v>
+                  <c:v>Udugama Thawalama</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thalagaha Kuruduwatta</c:v>
+                  <c:v>Hikkaduwa Meetiyagoda</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Wanduramba Ovilana</c:v>
+                  <c:v>Aluthwala Meetiyagoda</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dangedara  Elliot Road</c:v>
+                  <c:v>Baddegama Batapola</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Kuruduwatta  Bataduwa</c:v>
+                  <c:v>Mapalagama Wanduramba</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Narawala  Ambalanwatta</c:v>
+                  <c:v>Baddegama  Hikkaduwa</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Milidduwa Magalle</c:v>
+                  <c:v>Baddegama Nagoda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Kithulampitiya Karapitiya</c:v>
+                  <c:v>Wanduramba Talagaha</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Kuruduwatta Kottawa</c:v>
+                  <c:v>Makubura Udugama</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -645,43 +624,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Other Custermer</c:v>
+                  <c:v>Allakanda Baddegama Unavitiya</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Yatalamattha Banbarapura</c:v>
+                  <c:v>Hikkaduwa Kumarakanda</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Kottawa Yatalamatta</c:v>
+                  <c:v>Thagaswala Pitigala</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Nagoda Unanvitiya</c:v>
+                  <c:v>Kottawa Ellakanda</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Ovilana Labuduwa</c:v>
+                  <c:v>Udugama Thawalama</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thalagaha Kuruduwatta</c:v>
+                  <c:v>Hikkaduwa Meetiyagoda</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Wanduramba Ovilana</c:v>
+                  <c:v>Aluthwala Meetiyagoda</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dangedara  Elliot Road</c:v>
+                  <c:v>Baddegama Batapola</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Kuruduwatta  Bataduwa</c:v>
+                  <c:v>Mapalagama Wanduramba</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Narawala  Ambalanwatta</c:v>
+                  <c:v>Baddegama  Hikkaduwa</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Milidduwa Magalle</c:v>
+                  <c:v>Baddegama Nagoda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Kithulampitiya Karapitiya</c:v>
+                  <c:v>Wanduramba Talagaha</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Kuruduwatta Kottawa</c:v>
+                  <c:v>Makubura Udugama</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -853,43 +832,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Other Custermer</c:v>
+                  <c:v>Allakanda Baddegama Unavitiya</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Yatalamattha Banbarapura</c:v>
+                  <c:v>Hikkaduwa Kumarakanda</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Kottawa Yatalamatta</c:v>
+                  <c:v>Thagaswala Pitigala</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Nagoda Unanvitiya</c:v>
+                  <c:v>Kottawa Ellakanda</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Ovilana Labuduwa</c:v>
+                  <c:v>Udugama Thawalama</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thalagaha Kuruduwatta</c:v>
+                  <c:v>Hikkaduwa Meetiyagoda</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Wanduramba Ovilana</c:v>
+                  <c:v>Aluthwala Meetiyagoda</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dangedara  Elliot Road</c:v>
+                  <c:v>Baddegama Batapola</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Kuruduwatta  Bataduwa</c:v>
+                  <c:v>Mapalagama Wanduramba</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Narawala  Ambalanwatta</c:v>
+                  <c:v>Baddegama  Hikkaduwa</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Milidduwa Magalle</c:v>
+                  <c:v>Baddegama Nagoda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Kithulampitiya Karapitiya</c:v>
+                  <c:v>Wanduramba Talagaha</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Kuruduwatta Kottawa</c:v>
+                  <c:v>Makubura Udugama</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -928,10 +907,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1061,43 +1040,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Other Custermer</c:v>
+                  <c:v>Allakanda Baddegama Unavitiya</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Yatalamattha Banbarapura</c:v>
+                  <c:v>Hikkaduwa Kumarakanda</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Kottawa Yatalamatta</c:v>
+                  <c:v>Thagaswala Pitigala</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Nagoda Unanvitiya</c:v>
+                  <c:v>Kottawa Ellakanda</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Ovilana Labuduwa</c:v>
+                  <c:v>Udugama Thawalama</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thalagaha Kuruduwatta</c:v>
+                  <c:v>Hikkaduwa Meetiyagoda</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Wanduramba Ovilana</c:v>
+                  <c:v>Aluthwala Meetiyagoda</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dangedara  Elliot Road</c:v>
+                  <c:v>Baddegama Batapola</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Kuruduwatta  Bataduwa</c:v>
+                  <c:v>Mapalagama Wanduramba</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Narawala  Ambalanwatta</c:v>
+                  <c:v>Baddegama  Hikkaduwa</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Milidduwa Magalle</c:v>
+                  <c:v>Baddegama Nagoda</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Kithulampitiya Karapitiya</c:v>
+                  <c:v>Wanduramba Talagaha</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Kuruduwatta Kottawa</c:v>
+                  <c:v>Makubura Udugama</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1112,7 +1091,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1162,11 +1141,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="238692400"/>
-        <c:axId val="238695536"/>
+        <c:axId val="94085888"/>
+        <c:axId val="94087424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238692400"/>
+        <c:axId val="94085888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238695536"/>
+        <c:crossAx val="94087424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238695536"/>
+        <c:axId val="94087424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238692400"/>
+        <c:crossAx val="94085888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1999,7 +1978,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2034,7 +2013,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2272,145 +2251,275 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
       <c r="C6" s="10"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
       <c r="C7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
       <c r="C8" s="10"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
       <c r="C9" s="10"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
       <c r="C10" s="10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="10"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="10"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="10"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="10"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="10"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
